--- a/ocms/src/test/resources/DownloadedFiles/Template Operating Hours.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Template Operating Hours.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t xml:space="preserve">Template Name</t>
   </si>
@@ -121,120 +121,108 @@
     <t xml:space="preserve">11/12/2020 06:25:53</t>
   </si>
   <si>
+    <t xml:space="preserve">India'ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/04/2021 17:36:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/07/2021 14:22:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">county5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/05/2021 19:24:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdarshKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/05/2021 11:51:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/07/2021 17:57:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATR Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/06/2021 10:19:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agenttemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/03/2021 21:41:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaceBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2020 06:23:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FaxTemplate2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/12/2020 13:45:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whatsapp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductQA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2020 06:22:40</t>
+  </si>
+  <si>
     <t xml:space="preserve">00:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">17:40:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India'ss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/04/2021 17:36:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facebook3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/07/2021 14:22:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/06/2021 15:11:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">county5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/05/2021 19:24:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdarshKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/05/2021 11:51:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/07/2021 17:57:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATR Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/06/2021 10:19:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agenttemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">team8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/03/2021 21:41:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FaceBook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2020 06:23:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FaxTemplate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/12/2020 13:45:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whatsapp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2020 06:22:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">18:00:00</t>
   </si>
   <si>
@@ -245,6 +233,15 @@
   </si>
   <si>
     <t xml:space="preserve">23/01/2021 17:46:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TetherfiTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/2021 14:26:38</t>
   </si>
   <si>
     <t xml:space="preserve">Instagram</t>
@@ -366,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -541,78 +538,79 @@
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
              </c>
-      <c r="B11">
-             </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
              </c>
-      <c r="B12">
-             </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13">
              </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
+      <c r="B13">
+             </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14">
              </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
+      <c r="B14">
+             </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15">
              </c>
-      <c r="B15">
-             </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
@@ -620,91 +618,93 @@
              </c>
       <c r="B16">
              </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17">
              </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
+      <c r="B17">
+             </c>
       <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18">
              </c>
-      <c r="B18">
-             </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19">
              </c>
-      <c r="B19">
-             </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20">
              </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21">
              </c>
-      <c r="B21">
-             </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
@@ -712,78 +712,77 @@
              </c>
       <c r="B22">
              </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23">
              </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
+      <c r="B23">
+             </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24">
              </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25">
              </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26">
              </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25">
@@ -807,233 +806,171 @@
       <c r="B28">
              </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" x14ac:dyDescent="0.25">
       <c r="A29">
              </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" x14ac:dyDescent="0.25">
       <c r="A30">
              </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" x14ac:dyDescent="0.25">
       <c r="A31">
              </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" x14ac:dyDescent="0.25">
       <c r="A32">
              </c>
-      <c r="B32">
-             </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" x14ac:dyDescent="0.25">
       <c r="A33">
              </c>
-      <c r="B33">
-             </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" x14ac:dyDescent="0.25">
       <c r="A34">
              </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" x14ac:dyDescent="0.25">
       <c r="A35">
              </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>78</v>
+      <c r="B35">
+             </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" x14ac:dyDescent="0.25">
       <c r="A36">
              </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
+      <c r="B36">
+             </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" x14ac:dyDescent="0.25">
       <c r="A37">
              </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25">
       <c r="A38">
              </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" x14ac:dyDescent="0.25">
-      <c r="A39">
-             </c>
-      <c r="B39">
-             </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" x14ac:dyDescent="0.25">
-      <c r="A40">
-             </c>
-      <c r="B40">
-             </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" x14ac:dyDescent="0.25">
-      <c r="A41">
-             </c>
-      <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" x14ac:dyDescent="0.25">
-      <c r="A42">
-             </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" t="s">
         <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
